--- a/StructureDefinition-ext-R5-InventoryItem.xlsx
+++ b/StructureDefinition-ext-R5-InventoryItem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-InventoryItem.xlsx
+++ b/StructureDefinition-ext-R5-InventoryItem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5155" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5155" uniqueCount="439">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -385,6 +385,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.status</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -432,6 +435,9 @@
     <t>Extension.extension:category.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.category</t>
+  </si>
+  <si>
     <t>Extension.extension:category.value[x]</t>
   </si>
   <si>
@@ -463,6 +469,9 @@
     <t>Extension.extension:code.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.code</t>
+  </si>
+  <si>
     <t>Extension.extension:code.value[x]</t>
   </si>
   <si>
@@ -521,6 +530,9 @@
   </si>
   <si>
     <t>Extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.name.nameType</t>
   </si>
   <si>
     <t>Extension.extension:name.extension:nameType.value[x]</t>
@@ -557,6 +569,9 @@
     <t>Extension.extension:name.extension:language.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.name.language</t>
+  </si>
+  <si>
     <t>Extension.extension:name.extension:language.value[x]</t>
   </si>
   <si>
@@ -588,6 +603,9 @@
   </si>
   <si>
     <t>Extension.extension:name.extension:name.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.name.name</t>
   </si>
   <si>
     <t>Extension.extension:name.extension:name.value[x]</t>
@@ -660,6 +678,9 @@
     <t>Extension.extension:responsibleOrganization.extension:role.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.responsibleOrganization.role</t>
+  </si>
+  <si>
     <t>Extension.extension:responsibleOrganization.extension:role.value[x]</t>
   </si>
   <si>
@@ -685,6 +706,9 @@
   </si>
   <si>
     <t>Extension.extension:responsibleOrganization.extension:organization.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.responsibleOrganization.organization</t>
   </si>
   <si>
     <t>Extension.extension:responsibleOrganization.extension:organization.value[x]</t>
@@ -745,6 +769,9 @@
     <t>Extension.extension:description.extension:language.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.description.language</t>
+  </si>
+  <si>
     <t>Extension.extension:description.extension:language.value[x]</t>
   </si>
   <si>
@@ -772,6 +799,9 @@
     <t>Extension.extension:description.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.description.description</t>
+  </si>
+  <si>
     <t>Extension.extension:description.extension:description.value[x]</t>
   </si>
   <si>
@@ -808,6 +838,9 @@
     <t>Extension.extension:inventoryStatus.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.inventoryStatus</t>
+  </si>
+  <si>
     <t>Extension.extension:inventoryStatus.value[x]</t>
   </si>
   <si>
@@ -835,6 +868,9 @@
     <t>Extension.extension:baseUnit.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.baseUnit</t>
+  </si>
+  <si>
     <t>Extension.extension:baseUnit.value[x]</t>
   </si>
   <si>
@@ -860,6 +896,9 @@
   </si>
   <si>
     <t>Extension.extension:netContent.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.netContent</t>
   </si>
   <si>
     <t>Extension.extension:netContent.value[x]</t>
@@ -914,6 +953,9 @@
     <t>Extension.extension:association.extension:associationType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.association.associationType</t>
+  </si>
+  <si>
     <t>Extension.extension:association.extension:associationType.value[x]</t>
   </si>
   <si>
@@ -939,6 +981,9 @@
   </si>
   <si>
     <t>Extension.extension:association.extension:relatedItem.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.association.relatedItem</t>
   </si>
   <si>
     <t>Extension.extension:association.extension:relatedItem.value[x]</t>
@@ -972,6 +1017,9 @@
     <t>Extension.extension:association.extension:quantity.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.association.quantity</t>
+  </si>
+  <si>
     <t>Extension.extension:association.extension:quantity.value[x]</t>
   </si>
   <si>
@@ -1033,6 +1081,9 @@
     <t>Extension.extension:characteristic.extension:characteristicType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.characteristic.characteristicType</t>
+  </si>
+  <si>
     <t>Extension.extension:characteristic.extension:characteristicType.value[x]</t>
   </si>
   <si>
@@ -1061,6 +1112,9 @@
   </si>
   <si>
     <t>Extension.extension:characteristic.extension:value.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.characteristic.value</t>
   </si>
   <si>
     <t>Extension.extension:characteristic.extension:value.value[x]</t>
@@ -1124,6 +1178,9 @@
     <t>Extension.extension:instance.extension:identifier.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.instance.identifier</t>
+  </si>
+  <si>
     <t>Extension.extension:instance.extension:identifier.value[x]</t>
   </si>
   <si>
@@ -1155,6 +1212,9 @@
     <t>Extension.extension:instance.extension:lotNumber.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.instance.lotNumber</t>
+  </si>
+  <si>
     <t>Extension.extension:instance.extension:lotNumber.value[x]</t>
   </si>
   <si>
@@ -1180,6 +1240,9 @@
   </si>
   <si>
     <t>Extension.extension:instance.extension:expiry.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.instance.expiry</t>
   </si>
   <si>
     <t>Extension.extension:instance.extension:expiry.value[x]</t>
@@ -1213,6 +1276,9 @@
     <t>Extension.extension:instance.extension:subject.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.instance.subject</t>
+  </si>
+  <si>
     <t>Extension.extension:instance.extension:subject.value[x]</t>
   </si>
   <si>
@@ -1244,6 +1310,9 @@
     <t>Extension.extension:instance.extension:location.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.instance.location</t>
+  </si>
+  <si>
     <t>Extension.extension:instance.extension:location.value[x]</t>
   </si>
   <si>
@@ -1282,6 +1351,9 @@
   </si>
   <si>
     <t>Extension.extension:productReference.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryItem.productReference</t>
   </si>
   <si>
     <t>Extension.extension:productReference.value[x]</t>
@@ -2434,7 +2506,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2476,7 +2548,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2491,15 +2563,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2522,7 +2594,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -2579,7 +2651,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2591,21 +2663,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2630,14 +2702,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2706,7 +2778,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2809,7 +2881,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2914,7 +2986,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2957,7 +3029,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2999,7 +3071,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -3014,15 +3086,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3045,13 +3117,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3102,7 +3174,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3114,21 +3186,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3153,14 +3225,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3229,7 +3301,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -3332,7 +3404,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -3437,7 +3509,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -3480,7 +3552,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3522,7 +3594,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3537,15 +3609,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3568,13 +3640,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3625,7 +3697,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3637,21 +3709,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3676,14 +3748,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3752,7 +3824,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3855,7 +3927,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3866,7 +3938,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -3958,13 +4030,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3989,14 +4061,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4065,10 +4137,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4168,10 +4240,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4273,10 +4345,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4316,7 +4388,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -4358,7 +4430,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4373,15 +4445,15 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4404,13 +4476,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4461,7 +4533,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4473,21 +4545,21 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4512,14 +4584,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4588,10 +4660,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4691,10 +4763,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4796,10 +4868,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4839,7 +4911,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4881,7 +4953,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -4896,15 +4968,15 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4927,13 +4999,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4960,13 +5032,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4984,7 +5056,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4996,21 +5068,21 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -5035,14 +5107,14 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5111,10 +5183,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5214,10 +5286,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5319,10 +5391,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5362,7 +5434,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5404,7 +5476,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -5419,15 +5491,15 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5453,10 +5525,10 @@
         <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5507,7 +5579,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5519,15 +5591,15 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -5570,7 +5642,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5612,7 +5684,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5627,15 +5699,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5658,13 +5730,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5715,7 +5787,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5727,21 +5799,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5766,14 +5838,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5842,7 +5914,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5945,7 +6017,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -5956,7 +6028,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6048,13 +6120,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6079,14 +6151,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6155,10 +6227,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6258,10 +6330,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6363,10 +6435,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6406,7 +6478,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6448,7 +6520,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
@@ -6463,15 +6535,15 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6494,13 +6566,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6551,7 +6623,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6563,21 +6635,21 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6602,14 +6674,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6678,10 +6750,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6781,10 +6853,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6886,10 +6958,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6929,7 +7001,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6971,7 +7043,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -6986,15 +7058,15 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7017,13 +7089,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7074,7 +7146,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7086,15 +7158,15 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -7137,7 +7209,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7179,7 +7251,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7194,15 +7266,15 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7225,13 +7297,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7282,7 +7354,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7294,21 +7366,21 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7333,14 +7405,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7409,7 +7481,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7512,7 +7584,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7615,13 +7687,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7646,14 +7718,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7722,10 +7794,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7825,10 +7897,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7930,10 +8002,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7973,7 +8045,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8015,7 +8087,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
@@ -8030,15 +8102,15 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8061,13 +8133,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8094,13 +8166,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8118,7 +8190,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8130,21 +8202,21 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8169,14 +8241,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8245,10 +8317,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8348,10 +8420,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8453,10 +8525,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8496,7 +8568,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8538,7 +8610,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>86</v>
@@ -8553,15 +8625,15 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8587,10 +8659,10 @@
         <v>87</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8641,7 +8713,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -8653,15 +8725,15 @@
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8704,7 +8776,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8746,7 +8818,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>86</v>
@@ -8761,15 +8833,15 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8792,13 +8864,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8849,7 +8921,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -8861,21 +8933,21 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8900,14 +8972,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8976,7 +9048,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -9079,7 +9151,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -9184,7 +9256,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -9227,7 +9299,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9269,7 +9341,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
@@ -9284,15 +9356,15 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9315,13 +9387,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9372,7 +9444,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9384,21 +9456,21 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9423,14 +9495,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9499,7 +9571,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -9602,7 +9674,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -9707,7 +9779,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>113</v>
@@ -9750,7 +9822,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9792,7 +9864,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>86</v>
@@ -9807,15 +9879,15 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9838,13 +9910,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9895,7 +9967,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -9907,21 +9979,21 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9946,14 +10018,14 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10022,7 +10094,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>105</v>
@@ -10125,7 +10197,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>107</v>
@@ -10230,7 +10302,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>113</v>
@@ -10273,7 +10345,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10315,7 +10387,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>86</v>
@@ -10330,15 +10402,15 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10361,13 +10433,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10418,7 +10490,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -10430,21 +10502,21 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10469,14 +10541,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10545,7 +10617,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>105</v>
@@ -10648,7 +10720,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>107</v>
@@ -10659,7 +10731,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>79</v>
@@ -10751,13 +10823,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10782,14 +10854,14 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10858,10 +10930,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10961,10 +11033,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11066,10 +11138,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11109,7 +11181,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11151,7 +11223,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>86</v>
@@ -11166,15 +11238,15 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11197,13 +11269,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11254,7 +11326,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11266,21 +11338,21 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11305,14 +11377,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11381,10 +11453,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11484,10 +11556,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11589,10 +11661,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11632,7 +11704,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11674,7 +11746,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>86</v>
@@ -11689,15 +11761,15 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11720,13 +11792,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11777,7 +11849,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -11789,21 +11861,21 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11828,14 +11900,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11904,10 +11976,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12007,10 +12079,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12112,10 +12184,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12155,7 +12227,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12197,7 +12269,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>86</v>
@@ -12212,15 +12284,15 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12243,13 +12315,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12300,7 +12372,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -12312,15 +12384,15 @@
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>113</v>
@@ -12363,7 +12435,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12405,7 +12477,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>86</v>
@@ -12420,15 +12492,15 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12451,13 +12523,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12508,7 +12580,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -12520,21 +12592,21 @@
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12559,14 +12631,14 @@
         <v>93</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12635,7 +12707,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>105</v>
@@ -12738,7 +12810,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>107</v>
@@ -12749,7 +12821,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>79</v>
@@ -12841,13 +12913,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -12872,14 +12944,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -12948,10 +13020,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13051,10 +13123,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13156,10 +13228,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13199,7 +13271,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13241,7 +13313,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>86</v>
@@ -13256,15 +13328,15 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13287,13 +13359,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13344,7 +13416,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -13356,21 +13428,21 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13395,16 +13467,16 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13473,10 +13545,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13576,10 +13648,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13681,10 +13753,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13724,7 +13796,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13766,7 +13838,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>86</v>
@@ -13781,15 +13853,15 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13812,16 +13884,16 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -13871,7 +13943,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -13883,15 +13955,15 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>113</v>
@@ -13934,7 +14006,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -13976,7 +14048,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>86</v>
@@ -13991,15 +14063,15 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14022,13 +14094,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -14079,7 +14151,7 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -14091,21 +14163,21 @@
         <v>77</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>77</v>
@@ -14130,14 +14202,14 @@
         <v>93</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -14206,7 +14278,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>105</v>
@@ -14309,7 +14381,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>107</v>
@@ -14412,13 +14484,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14443,14 +14515,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14519,10 +14591,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14622,10 +14694,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14727,10 +14799,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -14770,7 +14842,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -14812,7 +14884,7 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>86</v>
@@ -14827,15 +14899,15 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -14858,13 +14930,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -14915,7 +14987,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -14927,21 +14999,21 @@
         <v>77</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -14966,14 +15038,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15042,10 +15114,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15145,10 +15217,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15250,10 +15322,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15293,7 +15365,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15335,7 +15407,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>86</v>
@@ -15350,15 +15422,15 @@
         <v>77</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15384,10 +15456,10 @@
         <v>87</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -15438,7 +15510,7 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
@@ -15450,21 +15522,21 @@
         <v>77</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15489,14 +15561,14 @@
         <v>93</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15565,10 +15637,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15668,10 +15740,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15773,10 +15845,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -15816,7 +15888,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -15858,7 +15930,7 @@
         <v>77</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>86</v>
@@ -15873,15 +15945,15 @@
         <v>77</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -15904,13 +15976,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -15961,7 +16033,7 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
@@ -15973,21 +16045,21 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16012,14 +16084,14 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16088,10 +16160,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16191,10 +16263,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16296,10 +16368,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16339,7 +16411,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16381,7 +16453,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>86</v>
@@ -16396,15 +16468,15 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16427,13 +16499,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16484,7 +16556,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -16496,21 +16568,21 @@
         <v>77</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>77</v>
@@ -16535,14 +16607,14 @@
         <v>93</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -16611,10 +16683,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16714,10 +16786,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -16819,10 +16891,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -16862,7 +16934,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -16904,7 +16976,7 @@
         <v>77</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>86</v>
@@ -16919,15 +16991,15 @@
         <v>77</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -16950,13 +17022,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17007,7 +17079,7 @@
         <v>77</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>78</v>
@@ -17019,15 +17091,15 @@
         <v>77</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>113</v>
@@ -17070,7 +17142,7 @@
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" t="s" s="2">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="S148" t="s" s="2">
         <v>77</v>
@@ -17112,7 +17184,7 @@
         <v>77</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>86</v>
@@ -17127,15 +17199,15 @@
         <v>77</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17158,13 +17230,13 @@
         <v>77</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -17215,7 +17287,7 @@
         <v>77</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>78</v>
@@ -17227,21 +17299,21 @@
         <v>77</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="D150" t="s" s="2">
         <v>77</v>
@@ -17266,14 +17338,14 @@
         <v>93</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>77</v>
@@ -17342,7 +17414,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>105</v>
@@ -17445,7 +17517,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>107</v>
@@ -17550,7 +17622,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>113</v>
@@ -17593,7 +17665,7 @@
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>77</v>
@@ -17635,7 +17707,7 @@
         <v>77</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>86</v>
@@ -17650,15 +17722,15 @@
         <v>77</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -17681,13 +17753,13 @@
         <v>77</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -17738,7 +17810,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>78</v>
@@ -17750,18 +17822,18 @@
         <v>77</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -17843,7 +17915,7 @@
         <v>77</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>86</v>
@@ -17858,15 +17930,15 @@
         <v>77</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -17889,13 +17961,13 @@
         <v>77</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -17946,7 +18018,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -17958,10 +18030,10 @@
         <v>77</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-InventoryItem.xlsx
+++ b/StructureDefinition-ext-R5-InventoryItem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -581,7 +581,7 @@
     <t>Name languages.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-languages-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-languages-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:name.extension:name</t>
@@ -714,7 +714,7 @@
     <t>Extension.extension:responsibleOrganization.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -904,7 +904,7 @@
     <t>Extension.extension:netContent.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -989,7 +989,7 @@
     <t>Extension.extension:association.extension:relatedItem.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-InventoryItem|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationKnowledge|0.0.1-snapshot-3|MedicationKnowledge|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-InventoryItem|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationKnowledge|MedicationKnowledge|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct)
 </t>
   </si>
   <si>
@@ -1282,7 +1282,7 @@
     <t>Extension.extension:instance.extension:subject.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -1316,7 +1316,7 @@
     <t>Extension.extension:instance.extension:location.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
 </t>
   </si>
   <si>
@@ -1359,7 +1359,7 @@
     <t>Extension.extension:productReference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct)
 </t>
   </si>
 </sst>
@@ -1711,7 +1711,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.84375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.3515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-InventoryItem.xlsx
+++ b/StructureDefinition-ext-R5-InventoryItem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5155" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5155" uniqueCount="444">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -404,6 +404,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Status of the inventory item.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-inventoryitem-status-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -545,6 +554,15 @@
 </t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Name types.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-inventoryitem-nametype-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:name.extension:language</t>
   </si>
   <si>
@@ -575,13 +593,10 @@
     <t>Extension.extension:name.extension:language.value[x]</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Name languages.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-languages-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-languages-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:name.extension:name</t>
@@ -714,7 +729,7 @@
     <t>Extension.extension:responsibleOrganization.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -904,7 +919,7 @@
     <t>Extension.extension:netContent.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -989,7 +1004,7 @@
     <t>Extension.extension:association.extension:relatedItem.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-InventoryItem|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationKnowledge|MedicationKnowledge|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-InventoryItem|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationKnowledge|0.0.1-snapshot-3|MedicationKnowledge|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1)
 </t>
   </si>
   <si>
@@ -1282,7 +1297,7 @@
     <t>Extension.extension:instance.extension:subject.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1316,7 +1331,7 @@
     <t>Extension.extension:instance.extension:location.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1359,7 +1374,7 @@
     <t>Extension.extension:productReference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1)
 </t>
   </si>
 </sst>
@@ -1710,8 +1725,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.3515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="23.8671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.8046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2627,13 +2642,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -2651,7 +2666,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2663,7 +2678,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -2671,13 +2686,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2702,14 +2717,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2778,7 +2793,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2881,7 +2896,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2986,7 +3001,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -3029,7 +3044,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3091,7 +3106,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -3117,13 +3132,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3174,7 +3189,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3186,7 +3201,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -3194,13 +3209,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3225,14 +3240,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3301,7 +3316,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -3404,7 +3419,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -3509,7 +3524,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -3552,7 +3567,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3614,7 +3629,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -3640,13 +3655,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3697,7 +3712,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3709,7 +3724,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>120</v>
@@ -3717,13 +3732,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3748,14 +3763,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3824,7 +3839,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3927,7 +3942,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3938,7 +3953,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4030,13 +4045,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -4061,14 +4076,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4137,10 +4152,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4240,10 +4255,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4345,10 +4360,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4388,7 +4403,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -4450,10 +4465,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4476,13 +4491,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4509,13 +4524,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4533,7 +4548,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4545,7 +4560,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>120</v>
@@ -4553,13 +4568,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4584,14 +4599,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4660,10 +4675,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4763,10 +4778,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4868,10 +4883,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4911,7 +4926,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4973,10 +4988,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5002,10 +5017,10 @@
         <v>123</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5032,13 +5047,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5056,7 +5071,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5068,7 +5083,7 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>120</v>
@@ -5076,13 +5091,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -5107,14 +5122,14 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5183,10 +5198,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5286,10 +5301,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5391,10 +5406,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5434,7 +5449,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5496,10 +5511,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5525,10 +5540,10 @@
         <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5579,7 +5594,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5591,7 +5606,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>120</v>
@@ -5599,7 +5614,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -5642,7 +5657,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5704,7 +5719,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -5730,13 +5745,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5787,7 +5802,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5799,7 +5814,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>120</v>
@@ -5807,13 +5822,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5838,14 +5853,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5914,7 +5929,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -6017,7 +6032,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -6028,7 +6043,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6120,13 +6135,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6151,14 +6166,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6227,10 +6242,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6330,10 +6345,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6435,10 +6450,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6478,7 +6493,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6540,10 +6555,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6566,13 +6581,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6623,7 +6638,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6635,7 +6650,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>120</v>
@@ -6643,13 +6658,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6674,14 +6689,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6750,10 +6765,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6853,10 +6868,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6958,10 +6973,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7001,7 +7016,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -7063,10 +7078,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7089,13 +7104,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7146,7 +7161,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7158,7 +7173,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>120</v>
@@ -7166,7 +7181,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -7209,7 +7224,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7271,7 +7286,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -7297,13 +7312,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7354,7 +7369,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7366,7 +7381,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>120</v>
@@ -7374,13 +7389,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7405,14 +7420,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7481,7 +7496,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7584,7 +7599,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7687,13 +7702,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7718,14 +7733,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7794,10 +7809,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7897,10 +7912,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8002,10 +8017,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8045,7 +8060,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8107,10 +8122,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8136,10 +8151,10 @@
         <v>123</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8166,13 +8181,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8190,7 +8205,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8202,7 +8217,7 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>120</v>
@@ -8210,13 +8225,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8241,14 +8256,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8317,10 +8332,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8420,10 +8435,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8525,10 +8540,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8568,7 +8583,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8630,10 +8645,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8659,10 +8674,10 @@
         <v>87</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8713,7 +8728,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -8725,7 +8740,7 @@
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>120</v>
@@ -8733,7 +8748,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8776,7 +8791,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8838,7 +8853,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -8864,13 +8879,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8921,7 +8936,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -8933,7 +8948,7 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>120</v>
@@ -8941,13 +8956,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8972,14 +8987,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9048,7 +9063,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -9151,7 +9166,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -9256,7 +9271,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -9299,7 +9314,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9361,7 +9376,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>122</v>
@@ -9387,13 +9402,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9444,7 +9459,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9456,7 +9471,7 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>120</v>
@@ -9464,13 +9479,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9495,14 +9510,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9571,7 +9586,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -9674,7 +9689,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -9779,7 +9794,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>113</v>
@@ -9822,7 +9837,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9884,7 +9899,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>122</v>
@@ -9910,13 +9925,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9967,7 +9982,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -9979,7 +9994,7 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>120</v>
@@ -9987,13 +10002,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10018,14 +10033,14 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10094,7 +10109,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>105</v>
@@ -10197,7 +10212,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>107</v>
@@ -10302,7 +10317,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>113</v>
@@ -10345,7 +10360,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10407,7 +10422,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>122</v>
@@ -10433,13 +10448,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10490,7 +10505,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -10502,7 +10517,7 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>120</v>
@@ -10510,13 +10525,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10541,14 +10556,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10617,7 +10632,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>105</v>
@@ -10720,7 +10735,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>107</v>
@@ -10731,7 +10746,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>79</v>
@@ -10823,13 +10838,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10854,14 +10869,14 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10930,10 +10945,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11033,10 +11048,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11138,10 +11153,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11181,7 +11196,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11243,10 +11258,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11269,13 +11284,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11326,7 +11341,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11338,7 +11353,7 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>120</v>
@@ -11346,13 +11361,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11377,14 +11392,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11453,10 +11468,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11556,10 +11571,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11661,10 +11676,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11704,7 +11719,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11766,10 +11781,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11792,13 +11807,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11849,7 +11864,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -11861,7 +11876,7 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>120</v>
@@ -11869,13 +11884,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11900,14 +11915,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11976,10 +11991,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12079,10 +12094,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12184,10 +12199,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12227,7 +12242,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12289,10 +12304,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12315,13 +12330,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12372,7 +12387,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -12384,7 +12399,7 @@
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>120</v>
@@ -12392,7 +12407,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>113</v>
@@ -12435,7 +12450,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12497,7 +12512,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>122</v>
@@ -12523,13 +12538,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12580,7 +12595,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -12592,7 +12607,7 @@
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>120</v>
@@ -12600,13 +12615,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12631,14 +12646,14 @@
         <v>93</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12707,7 +12722,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>105</v>
@@ -12810,7 +12825,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>107</v>
@@ -12821,7 +12836,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>79</v>
@@ -12913,13 +12928,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -12944,14 +12959,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13020,10 +13035,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13123,10 +13138,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13228,10 +13243,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13271,7 +13286,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13333,10 +13348,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13359,13 +13374,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13416,7 +13431,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -13428,7 +13443,7 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>120</v>
@@ -13436,13 +13451,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13467,16 +13482,16 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13545,10 +13560,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13648,10 +13663,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13753,10 +13768,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13796,7 +13811,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13858,10 +13873,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13884,16 +13899,16 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -13943,7 +13958,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -13955,7 +13970,7 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>120</v>
@@ -13963,7 +13978,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>113</v>
@@ -14006,7 +14021,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -14068,7 +14083,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>122</v>
@@ -14094,13 +14109,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -14151,7 +14166,7 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -14163,7 +14178,7 @@
         <v>77</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>120</v>
@@ -14171,13 +14186,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>77</v>
@@ -14202,14 +14217,14 @@
         <v>93</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -14278,7 +14293,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>105</v>
@@ -14381,7 +14396,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>107</v>
@@ -14484,13 +14499,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14515,14 +14530,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14591,10 +14606,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14694,10 +14709,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14799,10 +14814,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -14842,7 +14857,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -14904,10 +14919,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -14930,13 +14945,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -14987,7 +15002,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -14999,7 +15014,7 @@
         <v>77</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>120</v>
@@ -15007,13 +15022,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15038,14 +15053,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15114,10 +15129,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15217,10 +15232,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15322,10 +15337,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15365,7 +15380,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15427,10 +15442,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15456,10 +15471,10 @@
         <v>87</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -15510,7 +15525,7 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
@@ -15522,7 +15537,7 @@
         <v>77</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>120</v>
@@ -15530,13 +15545,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15561,14 +15576,14 @@
         <v>93</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15637,10 +15652,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15740,10 +15755,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15845,10 +15860,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -15888,7 +15903,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -15950,10 +15965,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -15976,13 +15991,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16033,7 +16048,7 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
@@ -16045,7 +16060,7 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>120</v>
@@ -16053,13 +16068,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16084,14 +16099,14 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16160,10 +16175,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16263,10 +16278,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16368,10 +16383,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16411,7 +16426,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16473,10 +16488,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16499,13 +16514,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16556,7 +16571,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -16568,7 +16583,7 @@
         <v>77</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>120</v>
@@ -16576,13 +16591,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>77</v>
@@ -16607,14 +16622,14 @@
         <v>93</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -16683,10 +16698,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16786,10 +16801,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -16891,10 +16906,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -16934,7 +16949,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -16996,10 +17011,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17022,13 +17037,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17079,7 +17094,7 @@
         <v>77</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>78</v>
@@ -17091,7 +17106,7 @@
         <v>77</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>120</v>
@@ -17099,7 +17114,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>113</v>
@@ -17142,7 +17157,7 @@
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="S148" t="s" s="2">
         <v>77</v>
@@ -17204,7 +17219,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>122</v>
@@ -17230,13 +17245,13 @@
         <v>77</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -17287,7 +17302,7 @@
         <v>77</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>78</v>
@@ -17299,7 +17314,7 @@
         <v>77</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>120</v>
@@ -17307,13 +17322,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D150" t="s" s="2">
         <v>77</v>
@@ -17338,14 +17353,14 @@
         <v>93</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>77</v>
@@ -17414,7 +17429,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>105</v>
@@ -17517,7 +17532,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>107</v>
@@ -17622,7 +17637,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>113</v>
@@ -17665,7 +17680,7 @@
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>77</v>
@@ -17727,7 +17742,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>122</v>
@@ -17753,13 +17768,13 @@
         <v>77</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -17810,7 +17825,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>78</v>
@@ -17822,7 +17837,7 @@
         <v>77</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>120</v>
@@ -17935,10 +17950,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -17961,13 +17976,13 @@
         <v>77</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -18018,7 +18033,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -18030,7 +18045,7 @@
         <v>77</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>120</v>
